--- a/trend_results/Rivers/KoputaroaatTavistockRd_f25e00c282.xlsx
+++ b/trend_results/Rivers/KoputaroaatTavistockRd_f25e00c282.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.608225721381051</v>
+        <v>0.391774278618949</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.789475756436089</v>
+        <v>0.210524243563911</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0222512273091494</v>
+        <v>0.977748772690851</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.761856500877507</v>
+        <v>0.238143499122493</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">

--- a/trend_results/Rivers/KoputaroaatTavistockRd_f25e00c282.xlsx
+++ b/trend_results/Rivers/KoputaroaatTavistockRd_f25e00c282.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.142533552792086</v>
+        <v>0.009713739118398</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="H2" t="n">
-        <v>0.794117647058823</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.046441660433807</v>
+        <v>-0.112963917525773</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.127740051406749</v>
+        <v>-0.273707222538662</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0124377181210605</v>
+        <v>-0.0330828508090349</v>
       </c>
       <c r="N2" t="n">
-        <v>-12.5518001172451</v>
+        <v>-35.3012242268041</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.391774278618949</v>
+        <v>0.120871091384334</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.915254237288136</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.87</v>
+        <v>11.04</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0222985347985343</v>
+        <v>-0.148296992481203</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.216344583727033</v>
+        <v>-0.336922850062077</v>
       </c>
       <c r="M3" t="n">
-        <v>0.153637478995858</v>
+        <v>0.0561921747697675</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.205138314613931</v>
+        <v>-1.34326985943118</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0174295972692272</v>
+        <v>0.0717959819576388</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0.018</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0015653571428571</v>
+        <v>0.0008314167974882</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003068173422272</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002939687420023</v>
+        <v>0.0023413461538461</v>
       </c>
       <c r="N4" t="n">
-        <v>8.696428571428569</v>
+        <v>4.61898220826792</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,35 +842,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.971971530989381</v>
+        <v>0.942547240380897</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0508474576271186</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6949152542372879</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>950</v>
+        <v>820</v>
       </c>
       <c r="K5" t="n">
-        <v>-153.349236641221</v>
+        <v>-112.951260504202</v>
       </c>
       <c r="L5" t="n">
-        <v>-308.816584803654</v>
+        <v>-287.283125276477</v>
       </c>
       <c r="M5" t="n">
-        <v>-13.5810633785519</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-16.1420249096023</v>
+        <v>-13.774543963927</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.802381222987042</v>
+        <v>0.5939388223095829</v>
       </c>
       <c r="G6" t="n">
-        <v>0.442307692307692</v>
+        <v>0.471698113207547</v>
       </c>
       <c r="H6" t="n">
-        <v>0.576923076923077</v>
+        <v>0.547169811320755</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0106940253578046</v>
+        <v>0.010116577751433</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0012644302643654</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.842837204756535</v>
+        <v>0.9933286275036179</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.355932203389831</v>
+        <v>0.322033898305085</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0003410364145658</v>
+        <v>-0.0007771276595744</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0010013098703946</v>
+        <v>-0.0013836458375286</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-3.41036414565826</v>
+        <v>-8.63475177304964</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.250288682037725</v>
+        <v>0.642902131348729</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9830508474576271</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.34</v>
+        <v>2.37</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0640388227927364</v>
+        <v>-0.0293963782696177</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.110017957142118</v>
+        <v>-0.187934852082854</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2098905940539</v>
+        <v>0.120944641539188</v>
       </c>
       <c r="N8" t="n">
-        <v>2.73670182874942</v>
+        <v>-1.24035351348598</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.210524243563911</v>
+        <v>0.002571621333304</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.813559322033898</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.51</v>
+        <v>7.495</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0289880952380972</v>
+        <v>-0.0958381924198252</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0868498068110721</v>
+        <v>-0.155303119624595</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0282046332046332</v>
+        <v>-0.0453726708074544</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.385993278802892</v>
+        <v>-1.2786950289503</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.321204456794239</v>
+        <v>0.6693698325144271</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,16 +1312,16 @@
         <v>2.389</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0487570257611242</v>
+        <v>-0.0322279411764706</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.111307304964255</v>
+        <v>-0.185395033149752</v>
       </c>
       <c r="M10" t="n">
-        <v>0.201957225835852</v>
+        <v>0.112351622157353</v>
       </c>
       <c r="N10" t="n">
-        <v>2.04089685061215</v>
+        <v>-1.34901386255632</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1384,32 +1384,32 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.681962226363638</v>
+        <v>0.479134035035542</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0508474576271186</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.389830508474576</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>2.68</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.931760204081633</v>
+        <v>-0.106465322363103</v>
       </c>
       <c r="M11" t="n">
-        <v>0.410854893138358</v>
+        <v>0.138060810375034</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.394288421905124</v>
+        <v>0.0156637366631687</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.88135593220339</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.61</v>
+        <v>0.05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0135881696428571</v>
+        <v>0.0047007722007722</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.107210655664589</v>
+        <v>0.0008469572221043</v>
       </c>
       <c r="M12" t="n">
-        <v>0.124832593525774</v>
+        <v>0.008315707133505599</v>
       </c>
       <c r="N12" t="n">
-        <v>0.520619526546249</v>
+        <v>9.401544401544401</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.029320922081922</v>
+        <v>0.507826633792547</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.711864406779661</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05</v>
+        <v>5.52</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0033663594470046</v>
+        <v>-0.0068656015037592</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005154312222048</v>
+        <v>-0.570150639289936</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0064900938201164</v>
+        <v>0.782678571428572</v>
       </c>
       <c r="N13" t="n">
-        <v>6.73271889400922</v>
+        <v>-0.124376838836218</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,46 +1646,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0025569961670569</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.06578947368421049</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.736842105263158</v>
+      </c>
+      <c r="I14" t="n">
         <v>5</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0.5857034623906771</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.949152542372881</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>5.55</v>
+        <v>0.425</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0936538461538462</v>
+        <v>-0.0564167600491614</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.944971278472594</v>
+        <v>-0.0985095405359194</v>
       </c>
       <c r="M14" t="n">
-        <v>0.446119041794698</v>
+        <v>-0.022240319299461</v>
       </c>
       <c r="N14" t="n">
-        <v>-1.68745668745669</v>
+        <v>-13.2745317762733</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.0151837671917719</v>
+        <v>0.950438134887541</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0704225352112676</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.71830985915493</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.45</v>
+        <v>10.62</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0550953859804791</v>
+        <v>0.0670183486238535</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.107689732131724</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0132483477085478</v>
+        <v>0.132049413823686</v>
       </c>
       <c r="N15" t="n">
-        <v>-12.2434191067731</v>
+        <v>0.631057896646455</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.977748772690851</v>
+        <v>0.0119133020349883</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.933962264150943</v>
+        <v>0.296610169491525</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.62</v>
+        <v>0.0175</v>
       </c>
       <c r="K16" t="n">
-        <v>0.09487012987012949</v>
+        <v>0.0005009155680581</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0171938649171941</v>
+        <v>0.0001662092788972</v>
       </c>
       <c r="M16" t="n">
-        <v>0.163970140545053</v>
+        <v>0.0008577299412915</v>
       </c>
       <c r="N16" t="n">
-        <v>0.893315723824195</v>
+        <v>2.86237467461794</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0066115885118836</v>
+        <v>0.930611795338533</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H17" t="n">
-        <v>0.30188679245283</v>
+        <v>0.686440677966102</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0175</v>
+        <v>975</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0007051158301158</v>
+        <v>-32.9776094512516</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002121874751491</v>
+        <v>-75.018759058436</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0011865666027241</v>
+        <v>1.70796828133372</v>
       </c>
       <c r="N17" t="n">
-        <v>4.0292333149476</v>
+        <v>-3.38231891807709</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.938796729304626</v>
+        <v>0.006001615466159</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.5909090909090911</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6509433962264149</v>
+        <v>0.418181818181818</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1000</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>-34.2839972527473</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-83.6195054945055</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-3.42839972527473</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0047677316023673</v>
+        <v>0.999991481556055</v>
       </c>
       <c r="G19" t="n">
-        <v>0.595959595959596</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H19" t="n">
-        <v>0.414141414141414</v>
+        <v>0.305084745762712</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0007609375</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0011101823708206</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-0.0004576662150491</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-7.609375</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9994485550876629</v>
+        <v>0.922366113439213</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0094339622641509</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.330188679245283</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.011</v>
+        <v>2.375</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0007051158301158</v>
+        <v>-0.0500071650399289</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0011491834621891</v>
+        <v>-0.111073715845407</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0003378882865202</v>
+        <v>0.0072458481943887</v>
       </c>
       <c r="N20" t="n">
-        <v>-6.41014391014391</v>
+        <v>-2.10556484378648</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.877586137002568</v>
+        <v>0.06675298901583999</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.924528301886792</v>
+        <v>0.658119658119658</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.38</v>
+        <v>7.45</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0464705519480519</v>
+        <v>-0.0124234693877551</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.116509159409226</v>
+        <v>-0.0288047509917791</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0177378053284367</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.95254419949798</v>
+        <v>-0.166757978359128</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_13e</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.238143499122493</v>
+        <v>0.933527211896193</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.679245283018868</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.495</v>
+        <v>2.405</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0055317088335167</v>
+        <v>-0.0504766094420601</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0200402420860636</v>
+        <v>-0.107712894199033</v>
       </c>
       <c r="M22" t="n">
-        <v>0.010074330759097</v>
+        <v>0.00525802530425</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.07380532132777549</v>
+        <v>-2.09881951942038</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_13e</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.888313617725936</v>
+        <v>0.954360306030545</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.933962264150943</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.4345</v>
+        <v>2.7</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0481448165301033</v>
+        <v>-0.0444904244306418</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.113976686002488</v>
+        <v>-0.0884382566585955</v>
       </c>
       <c r="M23" t="n">
-        <v>0.017609075775788</v>
+        <v>-0.0011501587610335</v>
       </c>
       <c r="N23" t="n">
-        <v>-1.9776059367469</v>
+        <v>-1.64779349743118</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.208744207348287</v>
+        <v>0.151193638803415</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0471698113207547</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.30188679245283</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.166704701049749</v>
+        <v>0.001000856340368</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.124525856061089</v>
+        <v>-0.0002973424630165</v>
       </c>
       <c r="M24" t="n">
-        <v>0.400409844319925</v>
+        <v>0.0021631521620293</v>
       </c>
       <c r="N24" t="n">
-        <v>3.33409402099498</v>
+        <v>2.00171268073604</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.958748334100713</v>
+        <v>0.0731943375545855</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.886792452830189</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.71</v>
+        <v>5.32</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0537597402597402</v>
+        <v>0.142162143701061</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.106554216114479</v>
+        <v>-0.0220050557850395</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0029789877469352</v>
+        <v>0.318518605402489</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.98375425312695</v>
+        <v>2.67222074626054</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.161650230885856</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.575471698113208</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.05</v>
+        <v>0.306</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0011650747339289</v>
+        <v>0.0035692954172549</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0006604569249724</v>
+        <v>-0.0348634647569825</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0023020728402266</v>
+        <v>0.0283544090474197</v>
       </c>
       <c r="N26" t="n">
-        <v>2.3301494678578</v>
+        <v>1.16643641086762</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2811,11 +2811,7 @@
           <t>Mana_13e</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2825,46 +2821,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0393312337317408</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.933962264150943</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5.25</v>
+        <v>95.45</v>
       </c>
       <c r="K27" t="n">
-        <v>0.178220426875652</v>
+        <v>-0.690139629901425</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0055743380413893</v>
+        <v>-6.10060113787669</v>
       </c>
       <c r="M27" t="n">
-        <v>0.333715701077736</v>
+        <v>4.32490141202941</v>
       </c>
       <c r="N27" t="n">
-        <v>3.39467479763146</v>
+        <v>-0.7230378521754059</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2869,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2902,11 +2898,7 @@
           <t>Mana_13e</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2916,7 +2908,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,7 +2923,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.231216363225238</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2943,19 +2935,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.309</v>
+        <v>4.33</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0060631613650451</v>
+        <v>0.0739369099247946</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0503847025736114</v>
+        <v>-0.299572274987411</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0150951942195157</v>
+        <v>0.258595728465444</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.96218814402754</v>
+        <v>1.70754988278971</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2956,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -3003,11 +2995,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3018,7 +3010,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.59675202974633</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3030,19 +3022,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>92</v>
+        <v>0.3075</v>
       </c>
       <c r="K29" t="n">
-        <v>2.30069710262829</v>
+        <v>-0.0031100987738419</v>
       </c>
       <c r="L29" t="n">
-        <v>-6.10060113787669</v>
+        <v>-0.0074219370347923</v>
       </c>
       <c r="M29" t="n">
-        <v>7.25379401532124</v>
+        <v>0.0016045332174178</v>
       </c>
       <c r="N29" t="n">
-        <v>2.50075772024814</v>
+        <v>-1.01141423539576</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3051,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3090,11 +3082,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3105,7 +3097,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.889664319040077</v>
+        <v>0.5</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3117,19 +3109,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4.24</v>
+        <v>93.72499999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0905923830811555</v>
+        <v>0.279456771231829</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.230711564247037</v>
+        <v>-1.3078547371153</v>
       </c>
       <c r="M30" t="n">
-        <v>0.306366954376026</v>
+        <v>1.74407157118073</v>
       </c>
       <c r="N30" t="n">
-        <v>2.13661280851782</v>
+        <v>0.298166733776291</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3138,7 +3130,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3169,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3192,7 +3184,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.125726093254011</v>
+        <v>0.975451009195367</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3204,19 +3196,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.309</v>
+        <v>4.2035</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0044774814298684</v>
+        <v>0.0484993131868132</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0085099228183779</v>
+        <v>0.0170667621605974</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0018440561561313</v>
+        <v>0.0791897735732329</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.44902311646228</v>
+        <v>1.15378406534586</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3217,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3255,180 +3247,6 @@
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Koputaroa at Tavistock Rd</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>10</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>92</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.0561471499179738</v>
-      </c>
-      <c r="L32" t="n">
-        <v>-1.59890886930936</v>
-      </c>
-      <c r="M32" t="n">
-        <v>2.32055982423146</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.0610295107804063</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q32" t="n">
-        <v>1797784.6</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5503388.08</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Mana_13e</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Koputaroa at Tavistock Rd</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>10</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>0.941074552489317</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4.171</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.0398549620019361</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-0.0057375189546086</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.08019389559872959</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.955525341691107</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Very likely improving</t>
-        </is>
-      </c>
-      <c r="Q33" t="n">
-        <v>1797784.6</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5503388.08</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Mana_13e</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/KoputaroaatTavistockRd_f25e00c282.xlsx
+++ b/trend_results/Rivers/KoputaroaatTavistockRd_f25e00c282.xlsx
@@ -136,55 +136,55 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
+    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Extremely likely increasing</t>
+    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
   </si>
   <si>
     <t>Horowhenua District</t>
@@ -663,31 +663,31 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.009713739118398</v>
+        <v>0.444285003575951</v>
       </c>
       <c r="G2">
-        <v>0.037037037037037</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.888888888888889</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="K2">
-        <v>-0.112963917525773</v>
+        <v>-0.004141156462585</v>
       </c>
       <c r="L2">
-        <v>-0.273707222538662</v>
+        <v>-0.07725997814274831</v>
       </c>
       <c r="M2">
-        <v>-0.0330828508090349</v>
+        <v>0.0296698153722191</v>
       </c>
       <c r="N2">
-        <v>-35.3012242268041</v>
+        <v>-2.58822278911564</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -734,31 +734,31 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.120871091384334</v>
+        <v>0.429917175010119</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.949152542372881</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.04</v>
+        <v>10.87</v>
       </c>
       <c r="K3">
-        <v>-0.148296992481203</v>
+        <v>-0.0165646258503405</v>
       </c>
       <c r="L3">
-        <v>-0.336922850062077</v>
+        <v>-0.237697982493407</v>
       </c>
       <c r="M3">
-        <v>0.0561921747697675</v>
+        <v>0.167288883172699</v>
       </c>
       <c r="N3">
-        <v>-1.34326985943118</v>
+        <v>-0.152388462284641</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
@@ -811,13 +811,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.474576271186441</v>
+        <v>0.457627118644068</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="K4">
         <v>0.0008314167974882</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0023413461538461</v>
+        <v>0.0018074693241749</v>
       </c>
       <c r="N4">
-        <v>4.61898220826792</v>
+        <v>4.89068704404839</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
@@ -873,34 +873,34 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5">
-        <v>0.942547240380897</v>
+        <v>0.847744859478166</v>
       </c>
       <c r="G5">
-        <v>0.0677966101694915</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H5">
-        <v>0.830508474576271</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5">
-        <v>820</v>
+        <v>642.8</v>
       </c>
       <c r="K5">
-        <v>-112.951260504202</v>
+        <v>-57.6907692307692</v>
       </c>
       <c r="L5">
-        <v>-287.283125276477</v>
+        <v>-190.731456237308</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>29.9068375953425</v>
       </c>
       <c r="N5">
-        <v>-13.774543963927</v>
+        <v>-8.974917428557751</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>0.5939388223095829</v>
+        <v>0.440936095267529</v>
       </c>
       <c r="G6">
-        <v>0.471698113207547</v>
+        <v>0.490909090909091</v>
       </c>
       <c r="H6">
-        <v>0.547169811320755</v>
+        <v>0.527272727272727</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.010116577751433</v>
+        <v>0.0101072527062006</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1797784.6</v>
@@ -1018,13 +1018,13 @@
         <v>39</v>
       </c>
       <c r="F7">
-        <v>0.9933286275036179</v>
+        <v>0.845006023811644</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.322033898305085</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1033,22 +1033,22 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K7">
-        <v>-0.0007771276595744</v>
+        <v>-0.0002393512450851</v>
       </c>
       <c r="L7">
-        <v>-0.0013836458375286</v>
+        <v>-0.0009480871069611</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-8.63475177304964</v>
+        <v>-2.65945827872434</v>
       </c>
       <c r="O7" t="s">
         <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q7">
         <v>1797784.6</v>
@@ -1089,7 +1089,7 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>0.642902131348729</v>
+        <v>0.208702621540999</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.37</v>
+        <v>2.44</v>
       </c>
       <c r="K8">
-        <v>-0.0293963782696177</v>
+        <v>0.07256622516556301</v>
       </c>
       <c r="L8">
-        <v>-0.187934852082854</v>
+        <v>-0.09807134695675571</v>
       </c>
       <c r="M8">
-        <v>0.120944641539188</v>
+        <v>0.221718905135453</v>
       </c>
       <c r="N8">
-        <v>-1.24035351348598</v>
+        <v>2.97402562153947</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
@@ -1160,37 +1160,37 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.002571621333304</v>
+        <v>0.126976043711375</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.810344827586207</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.495</v>
+        <v>7.45</v>
       </c>
       <c r="K9">
-        <v>-0.0958381924198252</v>
+        <v>-0.0365250000000001</v>
       </c>
       <c r="L9">
-        <v>-0.155303119624595</v>
+        <v>-0.0907453416149067</v>
       </c>
       <c r="M9">
-        <v>-0.0453726708074544</v>
+        <v>0.0167492907593603</v>
       </c>
       <c r="N9">
-        <v>-1.2786950289503</v>
+        <v>-0.490268456375841</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1797784.6</v>
@@ -1228,31 +1228,31 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.6693698325144271</v>
+        <v>0.229960222192112</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.949152542372881</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2.389</v>
+        <v>2.464</v>
       </c>
       <c r="K10">
-        <v>-0.0322279411764706</v>
+        <v>0.0772720828789531</v>
       </c>
       <c r="L10">
-        <v>-0.185395033149752</v>
+        <v>-0.0955442754411446</v>
       </c>
       <c r="M10">
-        <v>0.112351622157353</v>
+        <v>0.223489190622988</v>
       </c>
       <c r="N10">
-        <v>-1.34901386255632</v>
+        <v>3.13604232463284</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
@@ -1296,34 +1296,34 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>0.479134035035542</v>
+        <v>0.246138984717088</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.830508474576271</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.0579761904761903</v>
       </c>
       <c r="L11">
-        <v>-0.106465322363103</v>
+        <v>-0.07677333291567261</v>
       </c>
       <c r="M11">
-        <v>0.138060810375034</v>
+        <v>0.199377861290196</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2.14726631393298</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
@@ -1370,7 +1370,7 @@
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.0156637366631687</v>
+        <v>0.9001516332359289</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0.05</v>
       </c>
       <c r="K12">
-        <v>0.0047007722007722</v>
+        <v>-0.0017992610837438</v>
       </c>
       <c r="L12">
-        <v>0.0008469572221043</v>
+        <v>-0.0046908208322389</v>
       </c>
       <c r="M12">
-        <v>0.008315707133505599</v>
+        <v>0.0007365791972063</v>
       </c>
       <c r="N12">
-        <v>9.401544401544401</v>
+        <v>-3.59852216748769</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q12">
         <v>1797784.6</v>
@@ -1441,37 +1441,37 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.507826633792547</v>
+        <v>0.990048115990281</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.949152542372881</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.52</v>
+        <v>5.07</v>
       </c>
       <c r="K13">
-        <v>-0.0068656015037592</v>
+        <v>-0.761525096525097</v>
       </c>
       <c r="L13">
-        <v>-0.570150639289936</v>
+        <v>-1.48869449080905</v>
       </c>
       <c r="M13">
-        <v>0.782678571428572</v>
+        <v>-0.235984322318001</v>
       </c>
       <c r="N13">
-        <v>-0.124376838836218</v>
+        <v>-15.0202188663727</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q13">
         <v>1797784.6</v>
@@ -1512,37 +1512,37 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.0025569961670569</v>
+        <v>0.0030344330036009</v>
       </c>
       <c r="G14">
-        <v>0.06578947368421049</v>
+        <v>0.0428571428571429</v>
       </c>
       <c r="H14">
-        <v>0.736842105263158</v>
+        <v>0.771428571428571</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>0.425</v>
+        <v>0.395</v>
       </c>
       <c r="K14">
-        <v>-0.0564167600491614</v>
+        <v>-0.0479802955665025</v>
       </c>
       <c r="L14">
-        <v>-0.0985095405359194</v>
+        <v>-0.081650137770165</v>
       </c>
       <c r="M14">
-        <v>-0.022240319299461</v>
+        <v>-0.0186896070827797</v>
       </c>
       <c r="N14">
-        <v>-13.2745317762733</v>
+        <v>-12.1469102700006</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q14">
         <v>1797784.6</v>
@@ -1577,43 +1577,43 @@
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.950438134887541</v>
+        <v>0.928141201407475</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.932203389830508</v>
+        <v>0.92436974789916</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.62</v>
+        <v>10.7</v>
       </c>
       <c r="K15">
-        <v>0.0670183486238535</v>
+        <v>0.0733500684618895</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-0.0049698464413811</v>
       </c>
       <c r="M15">
-        <v>0.132049413823686</v>
+        <v>0.133887524191432</v>
       </c>
       <c r="N15">
-        <v>0.631057896646455</v>
+        <v>0.685514658522332</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q15">
         <v>1797784.6</v>
@@ -1654,37 +1654,37 @@
         <v>39</v>
       </c>
       <c r="F16">
-        <v>0.0119133020349883</v>
+        <v>0.0126652145330356</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.296610169491525</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0175</v>
+        <v>0.018</v>
       </c>
       <c r="K16">
-        <v>0.0005009155680581</v>
+        <v>0.0003998357963875</v>
       </c>
       <c r="L16">
-        <v>0.0001662092788972</v>
+        <v>0.0001426449107524</v>
       </c>
       <c r="M16">
-        <v>0.0008577299412915</v>
+        <v>0.000664695177434</v>
       </c>
       <c r="N16">
-        <v>2.86237467461794</v>
+        <v>2.22130997993067</v>
       </c>
       <c r="O16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q16">
         <v>1797784.6</v>
@@ -1722,40 +1722,40 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>0.930611795338533</v>
+        <v>0.977912540179144</v>
       </c>
       <c r="G17">
-        <v>0.0508474576271186</v>
+        <v>0.0504201680672269</v>
       </c>
       <c r="H17">
-        <v>0.686440677966102</v>
+        <v>0.697478991596639</v>
       </c>
       <c r="I17">
         <v>3</v>
       </c>
       <c r="J17">
-        <v>975</v>
+        <v>950</v>
       </c>
       <c r="K17">
-        <v>-32.9776094512516</v>
+        <v>-48.3187866927593</v>
       </c>
       <c r="L17">
-        <v>-75.018759058436</v>
+        <v>-125.048492774569</v>
       </c>
       <c r="M17">
-        <v>1.70796828133372</v>
+        <v>-6.56866846386871</v>
       </c>
       <c r="N17">
-        <v>-3.38231891807709</v>
+        <v>-5.08618807292203</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Q17">
         <v>1797784.6</v>
@@ -1793,16 +1793,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>0.006001615466159</v>
+        <v>0.0046346802176711</v>
       </c>
       <c r="G18">
-        <v>0.5909090909090911</v>
+        <v>0.567567567567568</v>
       </c>
       <c r="H18">
-        <v>0.418181818181818</v>
+        <v>0.441441441441441</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1826,7 +1826,7 @@
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q18">
         <v>1797784.6</v>
@@ -1867,13 +1867,13 @@
         <v>39</v>
       </c>
       <c r="F19">
-        <v>0.999991481556055</v>
+        <v>0.999918991964471</v>
       </c>
       <c r="G19">
-        <v>0.008474576271186401</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H19">
-        <v>0.305084745762712</v>
+        <v>0.260504201680672</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1882,22 +1882,22 @@
         <v>0.01</v>
       </c>
       <c r="K19">
-        <v>-0.0007609375</v>
+        <v>-0.0006402278702892</v>
       </c>
       <c r="L19">
-        <v>-0.0011101823708206</v>
+        <v>-0.0009438653764221999</v>
       </c>
       <c r="M19">
-        <v>-0.0004576662150491</v>
+        <v>-0.000346535316505</v>
       </c>
       <c r="N19">
-        <v>-7.609375</v>
+        <v>-6.4022787028922</v>
       </c>
       <c r="O19" t="s">
         <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q19">
         <v>1797784.6</v>
@@ -1938,37 +1938,37 @@
         <v>39</v>
       </c>
       <c r="F20">
-        <v>0.922366113439213</v>
+        <v>0.546625281278059</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.923728813559322</v>
+        <v>0.890756302521008</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2.375</v>
+        <v>2.37</v>
       </c>
       <c r="K20">
-        <v>-0.0500071650399289</v>
+        <v>-0.0052713091292558</v>
       </c>
       <c r="L20">
-        <v>-0.111073715845407</v>
+        <v>-0.0663523160095221</v>
       </c>
       <c r="M20">
-        <v>0.0072458481943887</v>
+        <v>0.0488384351232231</v>
       </c>
       <c r="N20">
-        <v>-2.10556484378648</v>
+        <v>-0.222418106719655</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q20">
         <v>1797784.6</v>
@@ -2009,13 +2009,13 @@
         <v>39</v>
       </c>
       <c r="F21">
-        <v>0.06675298901583999</v>
+        <v>0.062169056569658</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.658119658119658</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2024,22 +2024,22 @@
         <v>7.45</v>
       </c>
       <c r="K21">
-        <v>-0.0124234693877551</v>
+        <v>-0.0144512080694348</v>
       </c>
       <c r="L21">
-        <v>-0.0288047509917791</v>
+        <v>-0.0301551111503787</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>-0.166757978359128</v>
+        <v>-0.193975947240735</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q21">
         <v>1797784.6</v>
@@ -2077,37 +2077,37 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>0.933527211896193</v>
+        <v>0.576495042279224</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.932203389830508</v>
+        <v>0.9327731092436971</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2.405</v>
+        <v>2.395</v>
       </c>
       <c r="K22">
-        <v>-0.0504766094420601</v>
+        <v>-0.0068624878522837</v>
       </c>
       <c r="L22">
-        <v>-0.107712894199033</v>
+        <v>-0.06517467908754811</v>
       </c>
       <c r="M22">
-        <v>0.00525802530425</v>
+        <v>0.0484997239372048</v>
       </c>
       <c r="N22">
-        <v>-2.09881951942038</v>
+        <v>-0.286533939552559</v>
       </c>
       <c r="O22" t="s">
         <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q22">
         <v>1797784.6</v>
@@ -2148,37 +2148,37 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.954360306030545</v>
+        <v>0.684404161990832</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.864406779661017</v>
+        <v>0.840336134453782</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="K23">
-        <v>-0.0444904244306418</v>
+        <v>-0.0112818532818533</v>
       </c>
       <c r="L23">
-        <v>-0.0884382566585955</v>
+        <v>-0.0564092664092664</v>
       </c>
       <c r="M23">
-        <v>-0.0011501587610335</v>
+        <v>0.0314603606544236</v>
       </c>
       <c r="N23">
-        <v>-1.64779349743118</v>
+        <v>-0.419399750254769</v>
       </c>
       <c r="O23" t="s">
         <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q23">
         <v>1797784.6</v>
@@ -2216,40 +2216,40 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F24">
-        <v>0.151193638803415</v>
+        <v>0.479135075505421</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.559322033898305</v>
+        <v>0.546218487394958</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="K24">
-        <v>0.001000856340368</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>-0.0002973424630165</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="M24">
-        <v>0.0021631521620293</v>
+        <v>0.0014965852503894</v>
       </c>
       <c r="N24">
-        <v>2.00171268073604</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
         <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q24">
         <v>1797784.6</v>
@@ -2290,37 +2290,37 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.0731943375545855</v>
+        <v>0.582724924545042</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.940677966101695</v>
+        <v>0.957983193277311</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.32</v>
+        <v>5.17</v>
       </c>
       <c r="K25">
-        <v>0.142162143701061</v>
+        <v>-0.0273316326530613</v>
       </c>
       <c r="L25">
-        <v>-0.0220050557850395</v>
+        <v>-0.168959204705379</v>
       </c>
       <c r="M25">
-        <v>0.318518605402489</v>
+        <v>0.114595788380853</v>
       </c>
       <c r="N25">
-        <v>2.67222074626054</v>
+        <v>-0.528658271819368</v>
       </c>
       <c r="O25" t="s">
         <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q25">
         <v>1797784.6</v>
@@ -2361,7 +2361,7 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>0.5</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>0.306</v>
       </c>
       <c r="K26">
-        <v>0.0035692954172549</v>
+        <v>-0.0075863655606176</v>
       </c>
       <c r="L26">
-        <v>-0.0348634647569825</v>
+        <v>-0.0386839051622355</v>
       </c>
       <c r="M26">
-        <v>0.0283544090474197</v>
+        <v>0.009585515627413801</v>
       </c>
       <c r="N26">
-        <v>1.16643641086762</v>
+        <v>-2.4792044315744</v>
       </c>
       <c r="O26" t="s">
         <v>43</v>
@@ -2429,7 +2429,7 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.40324797025367</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>95.45</v>
       </c>
       <c r="K27">
-        <v>-0.690139629901425</v>
+        <v>-1.89795004276556</v>
       </c>
       <c r="L27">
         <v>-6.10060113787669</v>
       </c>
       <c r="M27">
-        <v>4.32490141202941</v>
+        <v>-0.016797654279551</v>
       </c>
       <c r="N27">
-        <v>-0.7230378521754059</v>
+        <v>-1.98842330305455</v>
       </c>
       <c r="O27" t="s">
         <v>43</v>
@@ -2497,7 +2497,7 @@
         <v>39</v>
       </c>
       <c r="F28">
-        <v>0.768783636774762</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2509,25 +2509,25 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>4.33</v>
+        <v>4.526</v>
       </c>
       <c r="K28">
-        <v>0.0739369099247946</v>
+        <v>0.156340159566977</v>
       </c>
       <c r="L28">
         <v>-0.299572274987411</v>
       </c>
       <c r="M28">
-        <v>0.258595728465444</v>
+        <v>0.362097406855131</v>
       </c>
       <c r="N28">
-        <v>1.70754988278971</v>
+        <v>3.45426777655715</v>
       </c>
       <c r="O28" t="s">
         <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q28">
         <v>1797784.6</v>
@@ -2565,7 +2565,7 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>0.141565435331173</v>
+        <v>0.105248850027669</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2577,25 +2577,25 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.3075</v>
+        <v>0.3025</v>
       </c>
       <c r="K29">
-        <v>-0.0031100987738419</v>
+        <v>-0.0036083973655323</v>
       </c>
       <c r="L29">
-        <v>-0.0074219370347923</v>
+        <v>-0.0079628012805909</v>
       </c>
       <c r="M29">
-        <v>0.0016045332174178</v>
+        <v>0.0008947481236200999</v>
       </c>
       <c r="N29">
-        <v>-1.01141423539576</v>
+        <v>-1.19285863323385</v>
       </c>
       <c r="O29" t="s">
         <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q29">
         <v>1797784.6</v>
@@ -2633,7 +2633,7 @@
         <v>39</v>
       </c>
       <c r="F30">
-        <v>0.5</v>
+        <v>0.8144533152386511</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2645,25 +2645,25 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>93.72499999999999</v>
+        <v>92.25</v>
       </c>
       <c r="K30">
-        <v>0.279456771231829</v>
+        <v>0.836195054945055</v>
       </c>
       <c r="L30">
-        <v>-1.3078547371153</v>
+        <v>-0.720089273001049</v>
       </c>
       <c r="M30">
         <v>1.74407157118073</v>
       </c>
       <c r="N30">
-        <v>0.298166733776291</v>
+        <v>0.90644450400548</v>
       </c>
       <c r="O30" t="s">
         <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q30">
         <v>1797784.6</v>
@@ -2701,7 +2701,7 @@
         <v>39</v>
       </c>
       <c r="F31">
-        <v>0.975451009195367</v>
+        <v>0.997896224357254</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>4.2035</v>
+        <v>4.2055</v>
       </c>
       <c r="K31">
-        <v>0.0484993131868132</v>
+        <v>0.0751290426908149</v>
       </c>
       <c r="L31">
-        <v>0.0170667621605974</v>
+        <v>0.0389778852324492</v>
       </c>
       <c r="M31">
-        <v>0.0791897735732329</v>
+        <v>0.123348677429595</v>
       </c>
       <c r="N31">
-        <v>1.15378406534586</v>
+        <v>1.7864473354135</v>
       </c>
       <c r="O31" t="s">
         <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q31">
         <v>1797784.6</v>
